--- a/data/data2011_2015.xlsx
+++ b/data/data2011_2015.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E3E9EDF-1ED6-453C-AF11-C646EE4FE333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9482E0-6F40-439F-8278-DFF0B1A7E005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012authors" sheetId="1" r:id="rId1"/>
     <sheet name="2012nodes" sheetId="2" r:id="rId2"/>
+    <sheet name="2013authors" sheetId="3" r:id="rId3"/>
+    <sheet name="2013nodes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="336">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -71,6 +73,12 @@
     <t>Flecker, AS</t>
   </si>
   <si>
+    <t>Segnini, S</t>
+  </si>
+  <si>
+    <t>Hamada, N</t>
+  </si>
+  <si>
     <t>Segura, MO</t>
   </si>
   <si>
@@ -549,6 +557,495 @@
   </si>
   <si>
     <t>Latin America</t>
+  </si>
+  <si>
+    <t>duplicate removed</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Williner, V</t>
+  </si>
+  <si>
+    <t>VW</t>
+  </si>
+  <si>
+    <t>Collins, PA</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>Villamarin, C</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Rieradevall, M</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Paul, MJ</t>
+  </si>
+  <si>
+    <t>MJP</t>
+  </si>
+  <si>
+    <t>Barbour, MT</t>
+  </si>
+  <si>
+    <t>MTB</t>
+  </si>
+  <si>
+    <t>Celina Reynaga, M</t>
+  </si>
+  <si>
+    <t>MCR</t>
+  </si>
+  <si>
+    <t>Andres Dos Santos, D</t>
+  </si>
+  <si>
+    <t>DADS</t>
+  </si>
+  <si>
+    <t>Cogo, GB</t>
+  </si>
+  <si>
+    <t>GBC</t>
+  </si>
+  <si>
+    <t>Santos, S</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Castro, DMP</t>
+  </si>
+  <si>
+    <t>DMPC</t>
+  </si>
+  <si>
+    <t>Hughes, RM</t>
+  </si>
+  <si>
+    <t>RMH</t>
+  </si>
+  <si>
+    <t>Arcifa, MS</t>
+  </si>
+  <si>
+    <t>MSA</t>
+  </si>
+  <si>
+    <t>Bunioto, TC</t>
+  </si>
+  <si>
+    <t>TCB</t>
+  </si>
+  <si>
+    <t>Perticarrari, A</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Minto, WJ</t>
+  </si>
+  <si>
+    <t>WJM</t>
+  </si>
+  <si>
+    <t>Small, GE</t>
+  </si>
+  <si>
+    <t>GES</t>
+  </si>
+  <si>
+    <t>Torres, PJ</t>
+  </si>
+  <si>
+    <t>PJT</t>
+  </si>
+  <si>
+    <t>Schweizer, LM</t>
+  </si>
+  <si>
+    <t>LMS</t>
+  </si>
+  <si>
+    <t>Duff, JH</t>
+  </si>
+  <si>
+    <t>JHD</t>
+  </si>
+  <si>
+    <t>Pringle, CM</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>Mendes Colares, MA</t>
+  </si>
+  <si>
+    <t>MAMC</t>
+  </si>
+  <si>
+    <t>Bonecker, CC</t>
+  </si>
+  <si>
+    <t>CCB</t>
+  </si>
+  <si>
+    <t>Simoes, NR</t>
+  </si>
+  <si>
+    <t>NRS</t>
+  </si>
+  <si>
+    <t>Alves, GM</t>
+  </si>
+  <si>
+    <t>GMA</t>
+  </si>
+  <si>
+    <t>Lansac-Toha, FA</t>
+  </si>
+  <si>
+    <t>FALT</t>
+  </si>
+  <si>
+    <t>Ardon, M</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Ramirez, A</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Jackman, AP</t>
+  </si>
+  <si>
+    <t>APJ</t>
+  </si>
+  <si>
+    <t>Triska, FJ</t>
+  </si>
+  <si>
+    <t>FJT</t>
+  </si>
+  <si>
+    <t>Biasi, C</t>
+  </si>
+  <si>
+    <t>Tonin, AM</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>Colzani, E</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Suriano, MT</t>
+  </si>
+  <si>
+    <t>MTS</t>
+  </si>
+  <si>
+    <t>Rosa, BFJV</t>
+  </si>
+  <si>
+    <t>BFJVR</t>
+  </si>
+  <si>
+    <t>Dias-Silva, MVD</t>
+  </si>
+  <si>
+    <t>MVDDS</t>
+  </si>
+  <si>
+    <t>Alves, RG</t>
+  </si>
+  <si>
+    <t>RGA</t>
+  </si>
+  <si>
+    <t>Fogaca, FNO</t>
+  </si>
+  <si>
+    <t>FNOF</t>
+  </si>
+  <si>
+    <t>Gomes, LC</t>
+  </si>
+  <si>
+    <t>LCG</t>
+  </si>
+  <si>
+    <t>Higuti, J</t>
+  </si>
+  <si>
+    <t>JH</t>
+  </si>
+  <si>
+    <t>Fontanarrosa, MS</t>
+  </si>
+  <si>
+    <t>MSF</t>
+  </si>
+  <si>
+    <t>Collantes, MB</t>
+  </si>
+  <si>
+    <t>MBC</t>
+  </si>
+  <si>
+    <t>Bachmann, AO</t>
+  </si>
+  <si>
+    <t>AOB</t>
+  </si>
+  <si>
+    <t>Jara, FG</t>
+  </si>
+  <si>
+    <t>FGJ</t>
+  </si>
+  <si>
+    <t>Ubeda, CA</t>
+  </si>
+  <si>
+    <t>CAU</t>
+  </si>
+  <si>
+    <t>Perotti, MG</t>
+  </si>
+  <si>
+    <t>MGP</t>
+  </si>
+  <si>
+    <t>Serafini Floss, EC</t>
+  </si>
+  <si>
+    <t>Pires, MM</t>
+  </si>
+  <si>
+    <t>MMP</t>
+  </si>
+  <si>
+    <t>Baldin, C</t>
+  </si>
+  <si>
+    <t>Bispo, PDC</t>
+  </si>
+  <si>
+    <t>PDCB</t>
+  </si>
+  <si>
+    <t>Novaes, MC</t>
+  </si>
+  <si>
+    <t>MCN</t>
+  </si>
+  <si>
+    <t>Linares, MS</t>
+  </si>
+  <si>
+    <t>MSL</t>
+  </si>
+  <si>
+    <t>Faccioli, GG</t>
+  </si>
+  <si>
+    <t>GGF</t>
+  </si>
+  <si>
+    <t>Freitas, LM</t>
+  </si>
+  <si>
+    <t>LMF</t>
+  </si>
+  <si>
+    <t>Dantas, GPS</t>
+  </si>
+  <si>
+    <t>GPSD</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>Do Nascimento, JMC</t>
+  </si>
+  <si>
+    <t>JMCDN</t>
+  </si>
+  <si>
+    <t>Salles, FF</t>
+  </si>
+  <si>
+    <t>FFS</t>
+  </si>
+  <si>
+    <t>Maier, CA</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>Short, AEZ</t>
+  </si>
+  <si>
+    <t>AEZS</t>
+  </si>
+  <si>
+    <t>Pinto, HA</t>
+  </si>
+  <si>
+    <t>HAP</t>
+  </si>
+  <si>
+    <t>de Melo, AL</t>
+  </si>
+  <si>
+    <t>ALdM</t>
+  </si>
+  <si>
+    <t>Nieto, C</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Cruz, PV</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>Padilla-Gil, DN</t>
+  </si>
+  <si>
+    <t>DNPG</t>
+  </si>
+  <si>
+    <t>Figueiredo Moreira, FF</t>
+  </si>
+  <si>
+    <t>FFFM</t>
+  </si>
+  <si>
+    <t>Barbosa, JF</t>
+  </si>
+  <si>
+    <t>JFB</t>
+  </si>
+  <si>
+    <t>Rodrigues, HDD</t>
+  </si>
+  <si>
+    <t>HDDR</t>
+  </si>
+  <si>
+    <t>Lopez-van Oosterom, MV</t>
+  </si>
+  <si>
+    <t>MVLvO</t>
+  </si>
+  <si>
+    <t>Munoz, MI</t>
+  </si>
+  <si>
+    <t>MIM</t>
+  </si>
+  <si>
+    <t>Rodrigues-Capitulo, A</t>
+  </si>
+  <si>
+    <t>Chacon, MM</t>
+  </si>
+  <si>
+    <t>MMC</t>
+  </si>
+  <si>
+    <t>Pescador, ML</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>Vasques, M</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Fischer, S</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Zanotti, G</t>
+  </si>
+  <si>
+    <t>GZ</t>
+  </si>
+  <si>
+    <t>Castro, A</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Quiroga, L</t>
+  </si>
+  <si>
+    <t>LQ</t>
+  </si>
+  <si>
+    <t>Vargas, DV</t>
+  </si>
+  <si>
+    <t>DVV</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>North America</t>
   </si>
 </sst>
 </file>
@@ -902,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF18145C-2A6A-4B4F-A60B-42F255DE5BF1}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D65"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,10 +1421,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -938,10 +1435,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -952,10 +1449,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -966,10 +1463,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -980,10 +1477,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -994,10 +1491,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1008,10 +1505,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1022,10 +1519,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1036,10 +1533,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1050,10 +1547,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1064,10 +1561,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1078,10 +1575,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1092,10 +1589,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1106,10 +1603,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1120,10 +1617,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1134,10 +1631,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -1148,10 +1645,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1162,10 +1659,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1176,10 +1673,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1190,10 +1687,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1204,10 +1701,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1218,10 +1715,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1232,10 +1729,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -1246,10 +1743,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -1260,10 +1757,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -1274,10 +1771,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C27">
         <v>15</v>
@@ -1288,10 +1785,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -1302,10 +1799,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C29">
         <v>15</v>
@@ -1316,10 +1813,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -1330,10 +1827,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -1344,10 +1841,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C32">
         <v>15</v>
@@ -1358,10 +1855,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -1372,10 +1869,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <v>15</v>
@@ -1386,10 +1883,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C35">
         <v>15</v>
@@ -1400,10 +1897,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C36">
         <v>16</v>
@@ -1414,10 +1911,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C37">
         <v>16</v>
@@ -1428,10 +1925,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C38">
         <v>20</v>
@@ -1442,10 +1939,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C39">
         <v>20</v>
@@ -1456,10 +1953,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C40">
         <v>20</v>
@@ -1470,10 +1967,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C41">
         <v>20</v>
@@ -1484,10 +1981,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C42">
         <v>22</v>
@@ -1498,10 +1995,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C43">
         <v>22</v>
@@ -1512,10 +2009,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C44">
         <v>22</v>
@@ -1526,10 +2023,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C45">
         <v>23</v>
@@ -1540,10 +2037,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C46">
         <v>23</v>
@@ -1554,10 +2051,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C47">
         <v>23</v>
@@ -1568,10 +2065,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C48">
         <v>23</v>
@@ -1582,10 +2079,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C49">
         <v>23</v>
@@ -1596,10 +2093,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C50">
         <v>24</v>
@@ -1610,10 +2107,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C51">
         <v>24</v>
@@ -1624,10 +2121,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C52">
         <v>25</v>
@@ -1638,10 +2135,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C53">
         <v>25</v>
@@ -1652,10 +2149,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C54">
         <v>26</v>
@@ -1666,10 +2163,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C55">
         <v>26</v>
@@ -1680,10 +2177,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C56">
         <v>26</v>
@@ -1694,10 +2191,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C57">
         <v>28</v>
@@ -1708,10 +2205,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C58">
         <v>28</v>
@@ -1722,10 +2219,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C59">
         <v>28</v>
@@ -1736,10 +2233,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C60">
         <v>28</v>
@@ -1750,10 +2247,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C61">
         <v>29</v>
@@ -1764,10 +2261,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
         <v>18</v>
-      </c>
-      <c r="B62" t="s">
-        <v>16</v>
       </c>
       <c r="C62">
         <v>29</v>
@@ -1778,10 +2275,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C63">
         <v>30</v>
@@ -1792,10 +2289,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C64">
         <v>31</v>
@@ -1806,10 +2303,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C65">
         <v>31</v>
@@ -1825,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7340776E-5870-435B-839E-52C83F300851}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1839,7 +2336,7 @@
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1858,622 +2355,634 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F2">
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F3">
         <v>2012</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F4">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F6">
         <v>2012</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F7">
         <v>2012</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F8">
         <v>2012</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F9">
         <v>2012</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F10">
         <v>2012</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11">
         <v>2012</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F12">
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F13">
         <v>2012</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F14">
         <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F15">
         <v>2012</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F16">
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F17">
         <v>2012</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F18">
         <v>2012</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F19">
         <v>2012</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F20">
         <v>2012</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D21">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F21">
         <v>2012</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F22">
         <v>2012</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D23">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F23">
         <v>2012</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F24">
         <v>2012</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D25">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F25">
         <v>2012</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D26">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F26">
         <v>2012</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F27">
         <v>2012</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D28">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F28">
         <v>2012</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F29">
         <v>2012</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D30">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F30">
         <v>2012</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D31">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F31">
         <v>2012</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F32">
         <v>2012</v>
@@ -2481,19 +2990,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D33">
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F33">
         <v>2012</v>
@@ -2501,19 +3010,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D34">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F34">
         <v>2012</v>
@@ -2521,19 +3030,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D35">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F35">
         <v>2012</v>
@@ -2541,19 +3050,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D36">
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F36">
         <v>2012</v>
@@ -2561,19 +3070,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D37">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F37">
         <v>2012</v>
@@ -2581,19 +3090,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D38">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F38">
         <v>2012</v>
@@ -2601,19 +3110,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D39">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F39">
         <v>2012</v>
@@ -2621,19 +3130,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D40">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F40">
         <v>2012</v>
@@ -2641,19 +3150,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D41">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F41">
         <v>2012</v>
@@ -2661,19 +3170,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D42">
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F42">
         <v>2012</v>
@@ -2681,19 +3190,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D43">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F43">
         <v>2012</v>
@@ -2701,19 +3210,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D44">
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F44">
         <v>2012</v>
@@ -2721,19 +3230,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D45">
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F45">
         <v>2012</v>
@@ -2741,19 +3250,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D46">
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F46">
         <v>2012</v>
@@ -2761,19 +3270,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D47">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F47">
         <v>2012</v>
@@ -2781,19 +3290,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D48">
         <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F48">
         <v>2012</v>
@@ -2801,19 +3310,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D49">
         <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F49">
         <v>2012</v>
@@ -2821,19 +3330,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D50">
         <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F50">
         <v>2012</v>
@@ -2841,19 +3350,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D51">
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F51">
         <v>2012</v>
@@ -2861,19 +3370,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D52">
         <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F52">
         <v>2012</v>
@@ -2881,19 +3390,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53">
         <v>22</v>
       </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F53">
         <v>2012</v>
@@ -2901,19 +3410,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54">
         <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F54">
         <v>2012</v>
@@ -2921,19 +3430,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55">
         <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F55">
         <v>2012</v>
@@ -2941,19 +3450,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56">
         <v>22</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F56">
         <v>2012</v>
@@ -2961,19 +3470,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D57">
         <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F57">
         <v>2012</v>
@@ -2981,19 +3490,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D58">
         <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F58">
         <v>2012</v>
@@ -3001,19 +3510,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D59">
         <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F59">
         <v>2012</v>
@@ -3021,19 +3530,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D60">
         <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F60">
         <v>2012</v>
@@ -3041,19 +3550,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D61">
         <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F61">
         <v>2012</v>
@@ -3061,19 +3570,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D62">
         <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F62">
         <v>2012</v>
@@ -3081,19 +3590,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D63">
         <v>24</v>
       </c>
       <c r="E63" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F63">
         <v>2012</v>
@@ -3101,19 +3610,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D64">
         <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F64">
         <v>2012</v>
@@ -3121,19 +3630,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D65">
         <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F65">
         <v>2012</v>
@@ -3141,19 +3650,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D66">
         <v>25</v>
       </c>
       <c r="E66" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F66">
         <v>2012</v>
@@ -3161,19 +3670,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D67">
         <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F67">
         <v>2012</v>
@@ -3181,19 +3690,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D68">
         <v>25</v>
       </c>
       <c r="E68" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F68">
         <v>2012</v>
@@ -3201,19 +3710,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D69">
         <v>26</v>
       </c>
       <c r="E69" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F69">
         <v>2012</v>
@@ -3221,19 +3730,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D70">
         <v>26</v>
       </c>
       <c r="E70" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F70">
         <v>2012</v>
@@ -3241,19 +3750,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D71">
         <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F71">
         <v>2012</v>
@@ -3261,19 +3770,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D72">
         <v>26</v>
       </c>
       <c r="E72" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F72">
         <v>2012</v>
@@ -3281,19 +3790,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D73">
         <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F73">
         <v>2012</v>
@@ -3301,19 +3810,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D74">
         <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F74">
         <v>2012</v>
@@ -3321,19 +3830,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D75">
         <v>28</v>
       </c>
       <c r="E75" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F75">
         <v>2012</v>
@@ -3341,19 +3850,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D76">
         <v>28</v>
       </c>
       <c r="E76" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F76">
         <v>2012</v>
@@ -3364,16 +3873,16 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D77">
         <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F77">
         <v>2012</v>
@@ -3381,19 +3890,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D78">
         <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F78">
         <v>2012</v>
@@ -3401,19 +3910,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D79">
         <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F79">
         <v>2012</v>
@@ -3421,19 +3930,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D80">
         <v>29</v>
       </c>
       <c r="E80" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F80">
         <v>2012</v>
@@ -3441,19 +3950,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D81">
         <v>30</v>
       </c>
       <c r="E81" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F81">
         <v>2012</v>
@@ -3461,19 +3970,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D82">
         <v>30</v>
       </c>
       <c r="E82" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F82">
         <v>2012</v>
@@ -3481,19 +3990,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D83">
         <v>31</v>
       </c>
       <c r="E83" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F83">
         <v>2012</v>
@@ -3501,19 +4010,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D84">
         <v>31</v>
       </c>
       <c r="E84" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F84">
         <v>2012</v>
@@ -3521,22 +4030,3271 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D85">
         <v>31</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F85">
         <v>2012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672A53D7-1F13-4CDA-9964-67B404DCBA97}">
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39">
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43">
+        <v>28</v>
+      </c>
+      <c r="D43">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44">
+        <v>28</v>
+      </c>
+      <c r="D44">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>29</v>
+      </c>
+      <c r="D45">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>29</v>
+      </c>
+      <c r="D47">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48">
+        <v>29</v>
+      </c>
+      <c r="D48">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50">
+        <v>31</v>
+      </c>
+      <c r="D50">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51">
+        <v>31</v>
+      </c>
+      <c r="D51">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>275</v>
+      </c>
+      <c r="B52" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52">
+        <v>32</v>
+      </c>
+      <c r="D52">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>275</v>
+      </c>
+      <c r="B53" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53">
+        <v>32</v>
+      </c>
+      <c r="D53">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54">
+        <v>33</v>
+      </c>
+      <c r="D54">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55">
+        <v>34</v>
+      </c>
+      <c r="D55">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" t="s">
+        <v>290</v>
+      </c>
+      <c r="C56">
+        <v>35</v>
+      </c>
+      <c r="D56">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57">
+        <v>36</v>
+      </c>
+      <c r="D57">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B58" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58">
+        <v>38</v>
+      </c>
+      <c r="D58">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>300</v>
+      </c>
+      <c r="B59" t="s">
+        <v>302</v>
+      </c>
+      <c r="C59">
+        <v>41</v>
+      </c>
+      <c r="D59">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>304</v>
+      </c>
+      <c r="B60" t="s">
+        <v>306</v>
+      </c>
+      <c r="C60">
+        <v>42</v>
+      </c>
+      <c r="D60">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61">
+        <v>43</v>
+      </c>
+      <c r="D61">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>310</v>
+      </c>
+      <c r="C62">
+        <v>43</v>
+      </c>
+      <c r="D62">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63">
+        <v>43</v>
+      </c>
+      <c r="D63">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" t="s">
+        <v>315</v>
+      </c>
+      <c r="C64">
+        <v>45</v>
+      </c>
+      <c r="D64">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>313</v>
+      </c>
+      <c r="B65" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65">
+        <v>45</v>
+      </c>
+      <c r="D65">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" t="s">
+        <v>286</v>
+      </c>
+      <c r="C66">
+        <v>46</v>
+      </c>
+      <c r="D66">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>298</v>
+      </c>
+      <c r="B67" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67">
+        <v>46</v>
+      </c>
+      <c r="D67">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68" t="s">
+        <v>317</v>
+      </c>
+      <c r="C68">
+        <v>47</v>
+      </c>
+      <c r="D68">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B69" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69">
+        <v>47</v>
+      </c>
+      <c r="D69">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>319</v>
+      </c>
+      <c r="B70" t="s">
+        <v>321</v>
+      </c>
+      <c r="C70">
+        <v>48</v>
+      </c>
+      <c r="D70">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>319</v>
+      </c>
+      <c r="B71" t="s">
+        <v>323</v>
+      </c>
+      <c r="C71">
+        <v>48</v>
+      </c>
+      <c r="D71">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>319</v>
+      </c>
+      <c r="B72" t="s">
+        <v>325</v>
+      </c>
+      <c r="C72">
+        <v>48</v>
+      </c>
+      <c r="D72">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>319</v>
+      </c>
+      <c r="B73" t="s">
+        <v>327</v>
+      </c>
+      <c r="C73">
+        <v>48</v>
+      </c>
+      <c r="D73">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74">
+        <v>49</v>
+      </c>
+      <c r="D74">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75">
+        <v>49</v>
+      </c>
+      <c r="D75">
+        <v>2013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9BF568-6440-4200-94F4-9E9147DF6D37}">
+  <dimension ref="A1:G108"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>335</v>
+      </c>
+      <c r="F20">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" t="s">
+        <v>329</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>335</v>
+      </c>
+      <c r="F30">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>335</v>
+      </c>
+      <c r="F31">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>335</v>
+      </c>
+      <c r="F32">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" t="s">
+        <v>329</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>335</v>
+      </c>
+      <c r="F34">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>335</v>
+      </c>
+      <c r="F35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" t="s">
+        <v>329</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>335</v>
+      </c>
+      <c r="F37">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" t="s">
+        <v>329</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>335</v>
+      </c>
+      <c r="F38">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" t="s">
+        <v>329</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>335</v>
+      </c>
+      <c r="F39">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" t="s">
+        <v>329</v>
+      </c>
+      <c r="D40">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>335</v>
+      </c>
+      <c r="F40">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>172</v>
+      </c>
+      <c r="F51">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C56" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59">
+        <v>28</v>
+      </c>
+      <c r="E59" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>264</v>
+      </c>
+      <c r="B60" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s">
+        <v>172</v>
+      </c>
+      <c r="F61">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s">
+        <v>172</v>
+      </c>
+      <c r="F62">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63">
+        <v>29</v>
+      </c>
+      <c r="E63" t="s">
+        <v>172</v>
+      </c>
+      <c r="F63">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64">
+        <v>29</v>
+      </c>
+      <c r="E64" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65">
+        <v>29</v>
+      </c>
+      <c r="E65" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66">
+        <v>30</v>
+      </c>
+      <c r="E66" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67">
+        <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>172</v>
+      </c>
+      <c r="F67">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>269</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68">
+        <v>31</v>
+      </c>
+      <c r="E68" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69">
+        <v>31</v>
+      </c>
+      <c r="E69" t="s">
+        <v>172</v>
+      </c>
+      <c r="F69">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>272</v>
+      </c>
+      <c r="B70" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70">
+        <v>31</v>
+      </c>
+      <c r="E70" t="s">
+        <v>172</v>
+      </c>
+      <c r="F70">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>274</v>
+      </c>
+      <c r="B71" t="s">
+        <v>275</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71">
+        <v>32</v>
+      </c>
+      <c r="E71" t="s">
+        <v>172</v>
+      </c>
+      <c r="F71">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>276</v>
+      </c>
+      <c r="B72" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72">
+        <v>32</v>
+      </c>
+      <c r="E72" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>278</v>
+      </c>
+      <c r="B73" t="s">
+        <v>279</v>
+      </c>
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73">
+        <v>32</v>
+      </c>
+      <c r="E73" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>280</v>
+      </c>
+      <c r="B74" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74">
+        <v>33</v>
+      </c>
+      <c r="E74" t="s">
+        <v>172</v>
+      </c>
+      <c r="F74">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s">
+        <v>172</v>
+      </c>
+      <c r="F75">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>283</v>
+      </c>
+      <c r="B76" t="s">
+        <v>284</v>
+      </c>
+      <c r="C76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76">
+        <v>34</v>
+      </c>
+      <c r="E76" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>285</v>
+      </c>
+      <c r="B77" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77">
+        <v>34</v>
+      </c>
+      <c r="E77" t="s">
+        <v>172</v>
+      </c>
+      <c r="F77">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C78" t="s">
+        <v>329</v>
+      </c>
+      <c r="D78">
+        <v>35</v>
+      </c>
+      <c r="E78" t="s">
+        <v>335</v>
+      </c>
+      <c r="F78">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>289</v>
+      </c>
+      <c r="B79" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" t="s">
+        <v>329</v>
+      </c>
+      <c r="D79">
+        <v>35</v>
+      </c>
+      <c r="E79" t="s">
+        <v>335</v>
+      </c>
+      <c r="F79">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>291</v>
+      </c>
+      <c r="B80" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80">
+        <v>36</v>
+      </c>
+      <c r="E80" t="s">
+        <v>172</v>
+      </c>
+      <c r="F80">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>293</v>
+      </c>
+      <c r="B81" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81">
+        <v>36</v>
+      </c>
+      <c r="E81" t="s">
+        <v>172</v>
+      </c>
+      <c r="F81">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>295</v>
+      </c>
+      <c r="B82" t="s">
+        <v>296</v>
+      </c>
+      <c r="C82" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82">
+        <v>38</v>
+      </c>
+      <c r="E82" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>297</v>
+      </c>
+      <c r="B83" t="s">
+        <v>298</v>
+      </c>
+      <c r="C83" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83">
+        <v>38</v>
+      </c>
+      <c r="E83" t="s">
+        <v>172</v>
+      </c>
+      <c r="F83">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>299</v>
+      </c>
+      <c r="B84" t="s">
+        <v>300</v>
+      </c>
+      <c r="C84" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84">
+        <v>41</v>
+      </c>
+      <c r="E84" t="s">
+        <v>172</v>
+      </c>
+      <c r="F84">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>301</v>
+      </c>
+      <c r="B85" t="s">
+        <v>302</v>
+      </c>
+      <c r="C85" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85">
+        <v>41</v>
+      </c>
+      <c r="E85" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" t="s">
+        <v>304</v>
+      </c>
+      <c r="C86" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86">
+        <v>42</v>
+      </c>
+      <c r="E86" t="s">
+        <v>172</v>
+      </c>
+      <c r="F86">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>305</v>
+      </c>
+      <c r="B87" t="s">
+        <v>306</v>
+      </c>
+      <c r="C87" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87">
+        <v>42</v>
+      </c>
+      <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88">
+        <v>43</v>
+      </c>
+      <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>307</v>
+      </c>
+      <c r="B89" t="s">
+        <v>308</v>
+      </c>
+      <c r="C89" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89">
+        <v>43</v>
+      </c>
+      <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>309</v>
+      </c>
+      <c r="B90" t="s">
+        <v>310</v>
+      </c>
+      <c r="C90" t="s">
+        <v>328</v>
+      </c>
+      <c r="D90">
+        <v>43</v>
+      </c>
+      <c r="E90" t="s">
+        <v>334</v>
+      </c>
+      <c r="F90">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>311</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91">
+        <v>43</v>
+      </c>
+      <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>312</v>
+      </c>
+      <c r="B92" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" t="s">
+        <v>333</v>
+      </c>
+      <c r="D92">
+        <v>45</v>
+      </c>
+      <c r="E92" t="s">
+        <v>172</v>
+      </c>
+      <c r="F92">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>314</v>
+      </c>
+      <c r="B93" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93" t="s">
+        <v>329</v>
+      </c>
+      <c r="D93">
+        <v>45</v>
+      </c>
+      <c r="E93" t="s">
+        <v>335</v>
+      </c>
+      <c r="F93">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" t="s">
+        <v>333</v>
+      </c>
+      <c r="D94">
+        <v>45</v>
+      </c>
+      <c r="E94" t="s">
+        <v>172</v>
+      </c>
+      <c r="F94">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>297</v>
+      </c>
+      <c r="B95" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" t="s">
+        <v>164</v>
+      </c>
+      <c r="D95">
+        <v>46</v>
+      </c>
+      <c r="E95" t="s">
+        <v>172</v>
+      </c>
+      <c r="F95">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>285</v>
+      </c>
+      <c r="B96" t="s">
+        <v>286</v>
+      </c>
+      <c r="C96" t="s">
+        <v>164</v>
+      </c>
+      <c r="D96">
+        <v>46</v>
+      </c>
+      <c r="E96" t="s">
+        <v>172</v>
+      </c>
+      <c r="F96">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" t="s">
+        <v>164</v>
+      </c>
+      <c r="D97">
+        <v>46</v>
+      </c>
+      <c r="E97" t="s">
+        <v>172</v>
+      </c>
+      <c r="F97">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98">
+        <v>47</v>
+      </c>
+      <c r="E98" t="s">
+        <v>172</v>
+      </c>
+      <c r="F98">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>316</v>
+      </c>
+      <c r="B99" t="s">
+        <v>317</v>
+      </c>
+      <c r="C99" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99">
+        <v>47</v>
+      </c>
+      <c r="E99" t="s">
+        <v>172</v>
+      </c>
+      <c r="F99">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>246</v>
+      </c>
+      <c r="B100" t="s">
+        <v>247</v>
+      </c>
+      <c r="C100" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100">
+        <v>47</v>
+      </c>
+      <c r="E100" t="s">
+        <v>172</v>
+      </c>
+      <c r="F100">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>318</v>
+      </c>
+      <c r="B101" t="s">
+        <v>319</v>
+      </c>
+      <c r="C101" t="s">
+        <v>168</v>
+      </c>
+      <c r="D101">
+        <v>48</v>
+      </c>
+      <c r="E101" t="s">
+        <v>172</v>
+      </c>
+      <c r="F101">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>320</v>
+      </c>
+      <c r="B102" t="s">
+        <v>321</v>
+      </c>
+      <c r="C102" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102">
+        <v>48</v>
+      </c>
+      <c r="E102" t="s">
+        <v>172</v>
+      </c>
+      <c r="F102">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>322</v>
+      </c>
+      <c r="B103" t="s">
+        <v>323</v>
+      </c>
+      <c r="C103" t="s">
+        <v>168</v>
+      </c>
+      <c r="D103">
+        <v>48</v>
+      </c>
+      <c r="E103" t="s">
+        <v>172</v>
+      </c>
+      <c r="F103">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>324</v>
+      </c>
+      <c r="B104" t="s">
+        <v>325</v>
+      </c>
+      <c r="C104" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104">
+        <v>48</v>
+      </c>
+      <c r="E104" t="s">
+        <v>172</v>
+      </c>
+      <c r="F104">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>326</v>
+      </c>
+      <c r="B105" t="s">
+        <v>327</v>
+      </c>
+      <c r="C105" t="s">
+        <v>168</v>
+      </c>
+      <c r="D105">
+        <v>48</v>
+      </c>
+      <c r="E105" t="s">
+        <v>172</v>
+      </c>
+      <c r="F105">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" t="s">
+        <v>164</v>
+      </c>
+      <c r="D106">
+        <v>49</v>
+      </c>
+      <c r="E106" t="s">
+        <v>172</v>
+      </c>
+      <c r="F106">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107" t="s">
+        <v>164</v>
+      </c>
+      <c r="D107">
+        <v>49</v>
+      </c>
+      <c r="E107" t="s">
+        <v>172</v>
+      </c>
+      <c r="F107">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" t="s">
+        <v>164</v>
+      </c>
+      <c r="D108">
+        <v>49</v>
+      </c>
+      <c r="E108" t="s">
+        <v>172</v>
+      </c>
+      <c r="F108">
+        <v>2013</v>
       </c>
     </row>
   </sheetData>

--- a/data/data2011_2015.xlsx
+++ b/data/data2011_2015.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9482E0-6F40-439F-8278-DFF0B1A7E005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2CAE81-94D4-46F6-A47A-363363CBECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2012authors" sheetId="1" r:id="rId1"/>
-    <sheet name="2012nodes" sheetId="2" r:id="rId2"/>
-    <sheet name="2013authors" sheetId="3" r:id="rId3"/>
-    <sheet name="2013nodes" sheetId="4" r:id="rId4"/>
+    <sheet name="2011authors" sheetId="5" r:id="rId1"/>
+    <sheet name="2011nodes" sheetId="6" r:id="rId2"/>
+    <sheet name="2012authors" sheetId="1" r:id="rId3"/>
+    <sheet name="2012nodes" sheetId="2" r:id="rId4"/>
+    <sheet name="2013authors" sheetId="3" r:id="rId5"/>
+    <sheet name="2013nodes" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="433">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -1046,6 +1048,297 @@
   </si>
   <si>
     <t>North America</t>
+  </si>
+  <si>
+    <t>Rodriguez-Barrios, J</t>
+  </si>
+  <si>
+    <t>JRB</t>
+  </si>
+  <si>
+    <t>Ospina-Torres, R</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>Turizo-Correa, R</t>
+  </si>
+  <si>
+    <t>RTZC</t>
+  </si>
+  <si>
+    <t>Prat Fornells, N</t>
+  </si>
+  <si>
+    <t>NPFL</t>
+  </si>
+  <si>
+    <t>Hall, ROJr.</t>
+  </si>
+  <si>
+    <t>ROH</t>
+  </si>
+  <si>
+    <t>Taylor, BW</t>
+  </si>
+  <si>
+    <t>BWTY</t>
+  </si>
+  <si>
+    <t>Mormul, RP</t>
+  </si>
+  <si>
+    <t>RPML</t>
+  </si>
+  <si>
+    <t>Thomaz, SM</t>
+  </si>
+  <si>
+    <t>SMTO</t>
+  </si>
+  <si>
+    <t>Takeda, AM</t>
+  </si>
+  <si>
+    <t>AMTK</t>
+  </si>
+  <si>
+    <t>Behrend, RD</t>
+  </si>
+  <si>
+    <t>RDB</t>
+  </si>
+  <si>
+    <t>Kuhn, J</t>
+  </si>
+  <si>
+    <t>JKH</t>
+  </si>
+  <si>
+    <t>Andino, P</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Calvez, R</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Espinosa, R</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>Hamerlik, L</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>Vie, S</t>
+  </si>
+  <si>
+    <t>SVI</t>
+  </si>
+  <si>
+    <t>Dangles, O</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>Jacobsen, D</t>
+  </si>
+  <si>
+    <t>DJA</t>
+  </si>
+  <si>
+    <t>Souza, HML</t>
+  </si>
+  <si>
+    <t>HMLS</t>
+  </si>
+  <si>
+    <t>Cabette, HSR</t>
+  </si>
+  <si>
+    <t>HRSC</t>
+  </si>
+  <si>
+    <t>Juen, L</t>
+  </si>
+  <si>
+    <t>LJN</t>
+  </si>
+  <si>
+    <t>Maroneze, DM</t>
+  </si>
+  <si>
+    <t>DMMZ</t>
+  </si>
+  <si>
+    <t>Tupinambas, TH</t>
+  </si>
+  <si>
+    <t>THTP</t>
+  </si>
+  <si>
+    <t>Alves, CBM</t>
+  </si>
+  <si>
+    <t>CBMA</t>
+  </si>
+  <si>
+    <t>Vieira, F</t>
+  </si>
+  <si>
+    <t>FVEI</t>
+  </si>
+  <si>
+    <t>Pompeu, PS</t>
+  </si>
+  <si>
+    <t>PSPU</t>
+  </si>
+  <si>
+    <t>de Jesus-Crespo, R</t>
+  </si>
+  <si>
+    <t>RJC</t>
+  </si>
+  <si>
+    <t>Simanonok, MP</t>
+  </si>
+  <si>
+    <t>MPSM</t>
+  </si>
+  <si>
+    <t>Anderson, CB</t>
+  </si>
+  <si>
+    <t>CBA</t>
+  </si>
+  <si>
+    <t>Martinez Pastur, G</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>Vanessa Lencinas, M</t>
+  </si>
+  <si>
+    <t>MVLE</t>
+  </si>
+  <si>
+    <t>Kennedy, JH</t>
+  </si>
+  <si>
+    <t>JKN</t>
+  </si>
+  <si>
+    <t>Montoya M, Y</t>
+  </si>
+  <si>
+    <t>YMM</t>
+  </si>
+  <si>
+    <t>Acosta, Y</t>
+  </si>
+  <si>
+    <t>YR</t>
+  </si>
+  <si>
+    <t>Zuluaga, E</t>
+  </si>
+  <si>
+    <t>EZLG</t>
+  </si>
+  <si>
+    <t>Acosta, R</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>NPT</t>
+  </si>
+  <si>
+    <t>BFJR</t>
+  </si>
+  <si>
+    <t>da Silva, MVD</t>
+  </si>
+  <si>
+    <t>MVDS</t>
+  </si>
+  <si>
+    <t>de Oliveira, VC</t>
+  </si>
+  <si>
+    <t>VCO</t>
+  </si>
+  <si>
+    <t>Martins, RT</t>
+  </si>
+  <si>
+    <t>RTM</t>
+  </si>
+  <si>
+    <t>Suriani-Affonso, AL</t>
+  </si>
+  <si>
+    <t>ALSF</t>
+  </si>
+  <si>
+    <t>Franca, RS</t>
+  </si>
+  <si>
+    <t>RSF</t>
+  </si>
+  <si>
+    <t>Marchese, M</t>
+  </si>
+  <si>
+    <t>MME</t>
+  </si>
+  <si>
+    <t>Rocha, O</t>
+  </si>
+  <si>
+    <t>ORO</t>
+  </si>
+  <si>
+    <t>Dominguez-Granda, L</t>
+  </si>
+  <si>
+    <t>LEDG</t>
+  </si>
+  <si>
+    <t>Lock, K</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>Goethals, PLM</t>
+  </si>
+  <si>
+    <t>PLMG</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
 </sst>
 </file>
@@ -1396,6 +1689,1773 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1BCEF8-726C-42C3-B6B7-D2E60D7AE6BE}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>379</v>
+      </c>
+      <c r="B23" t="s">
+        <v>387</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>379</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>389</v>
+      </c>
+      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>391</v>
+      </c>
+      <c r="B26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>391</v>
+      </c>
+      <c r="B27" t="s">
+        <v>395</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>391</v>
+      </c>
+      <c r="B28" t="s">
+        <v>397</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>391</v>
+      </c>
+      <c r="B29" t="s">
+        <v>399</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>401</v>
+      </c>
+      <c r="B30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31" t="s">
+        <v>405</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>407</v>
+      </c>
+      <c r="B32" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>409</v>
+      </c>
+      <c r="B33" t="s">
+        <v>411</v>
+      </c>
+      <c r="C33">
+        <v>28</v>
+      </c>
+      <c r="D33">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>409</v>
+      </c>
+      <c r="B34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>409</v>
+      </c>
+      <c r="B35" t="s">
+        <v>415</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>409</v>
+      </c>
+      <c r="B36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>417</v>
+      </c>
+      <c r="B37" t="s">
+        <v>419</v>
+      </c>
+      <c r="C37">
+        <v>32</v>
+      </c>
+      <c r="D37">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>417</v>
+      </c>
+      <c r="B38" t="s">
+        <v>421</v>
+      </c>
+      <c r="C38">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" t="s">
+        <v>423</v>
+      </c>
+      <c r="C39">
+        <v>32</v>
+      </c>
+      <c r="D39">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>389</v>
+      </c>
+      <c r="B40" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>425</v>
+      </c>
+      <c r="B41" t="s">
+        <v>427</v>
+      </c>
+      <c r="C41">
+        <v>37</v>
+      </c>
+      <c r="D41">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>425</v>
+      </c>
+      <c r="B42" t="s">
+        <v>429</v>
+      </c>
+      <c r="C42">
+        <v>37</v>
+      </c>
+      <c r="D42">
+        <v>2011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F118BAD-928A-442C-8174-D36410CC770A}">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F10">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" t="s">
+        <v>430</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>334</v>
+      </c>
+      <c r="F15">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" t="s">
+        <v>431</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" t="s">
+        <v>430</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F19">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" t="s">
+        <v>367</v>
+      </c>
+      <c r="C20" t="s">
+        <v>430</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>334</v>
+      </c>
+      <c r="F20">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B25" t="s">
+        <v>377</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>382</v>
+      </c>
+      <c r="B28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B29" t="s">
+        <v>385</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>386</v>
+      </c>
+      <c r="B30" t="s">
+        <v>387</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>388</v>
+      </c>
+      <c r="B32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" t="s">
+        <v>332</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>390</v>
+      </c>
+      <c r="B34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C34" t="s">
+        <v>330</v>
+      </c>
+      <c r="D34">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>392</v>
+      </c>
+      <c r="B35" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D35">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>394</v>
+      </c>
+      <c r="B36" t="s">
+        <v>395</v>
+      </c>
+      <c r="C36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>396</v>
+      </c>
+      <c r="B37" t="s">
+        <v>397</v>
+      </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>398</v>
+      </c>
+      <c r="B38" t="s">
+        <v>399</v>
+      </c>
+      <c r="C38" t="s">
+        <v>330</v>
+      </c>
+      <c r="D38">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>400</v>
+      </c>
+      <c r="B39" t="s">
+        <v>401</v>
+      </c>
+      <c r="C39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>402</v>
+      </c>
+      <c r="B40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>404</v>
+      </c>
+      <c r="B41" t="s">
+        <v>405</v>
+      </c>
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>406</v>
+      </c>
+      <c r="B42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C42" t="s">
+        <v>328</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>334</v>
+      </c>
+      <c r="F42">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C43" t="s">
+        <v>328</v>
+      </c>
+      <c r="D43">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>334</v>
+      </c>
+      <c r="F43">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" t="s">
+        <v>409</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>410</v>
+      </c>
+      <c r="B45" t="s">
+        <v>411</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>414</v>
+      </c>
+      <c r="B47" t="s">
+        <v>415</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48">
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>416</v>
+      </c>
+      <c r="B49" t="s">
+        <v>417</v>
+      </c>
+      <c r="C49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49">
+        <v>32</v>
+      </c>
+      <c r="E49" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>418</v>
+      </c>
+      <c r="B50" t="s">
+        <v>419</v>
+      </c>
+      <c r="C50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>420</v>
+      </c>
+      <c r="B51" t="s">
+        <v>421</v>
+      </c>
+      <c r="C51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>172</v>
+      </c>
+      <c r="F51">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>422</v>
+      </c>
+      <c r="B52" t="s">
+        <v>423</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>388</v>
+      </c>
+      <c r="B53" t="s">
+        <v>389</v>
+      </c>
+      <c r="C53" t="s">
+        <v>329</v>
+      </c>
+      <c r="D53">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
+        <v>335</v>
+      </c>
+      <c r="F53">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" t="s">
+        <v>332</v>
+      </c>
+      <c r="D54">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>424</v>
+      </c>
+      <c r="B55" t="s">
+        <v>425</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55">
+        <v>37</v>
+      </c>
+      <c r="E55" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>426</v>
+      </c>
+      <c r="B56" t="s">
+        <v>427</v>
+      </c>
+      <c r="C56" t="s">
+        <v>432</v>
+      </c>
+      <c r="D56">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>334</v>
+      </c>
+      <c r="F56">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>428</v>
+      </c>
+      <c r="B57" t="s">
+        <v>429</v>
+      </c>
+      <c r="C57" t="s">
+        <v>432</v>
+      </c>
+      <c r="D57">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
+        <v>334</v>
+      </c>
+      <c r="F57">
+        <v>2011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF18145C-2A6A-4B4F-A60B-42F255DE5BF1}">
   <dimension ref="A1:D65"/>
   <sheetViews>
@@ -2320,12 +4380,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7340776E-5870-435B-839E-52C83F300851}">
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4053,11 +6113,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672A53D7-1F13-4CDA-9964-67B404DCBA97}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
@@ -5118,12 +7178,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9BF568-6440-4200-94F4-9E9147DF6D37}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F108"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/data2011_2015.xlsx
+++ b/data/data2011_2015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE78D10-900E-45C3-A52F-565E9964136F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C779FC09-6A72-46E1-84E6-B1C78061DED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2011authors" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="1019">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -4101,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DFBF45-B6E3-4682-9768-8C27BE0E9496}">
   <dimension ref="A1:G224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C215" sqref="C215"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22166,15 +22166,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D206AE6-D67B-4992-B0DC-5F582476AD63}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22186,6 +22186,2582 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C30" s="3">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C31" s="3">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C32" s="3">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C33" s="3">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C34" s="3">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C35" s="3">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="3">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C38" s="3">
+        <v>11</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C39" s="3">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="3">
+        <v>11</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="3">
+        <v>11</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C42" s="3">
+        <v>12</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C43" s="3">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C44" s="3">
+        <v>12</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C45" s="3">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C46" s="3">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="3">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C48" s="3">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C49" s="3">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="3">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C51" s="3">
+        <v>14</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="3">
+        <v>14</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C53" s="3">
+        <v>14</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C54" s="3">
+        <v>15</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="3">
+        <v>16</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C56" s="3">
+        <v>16</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C57" s="3">
+        <v>16</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C58" s="3">
+        <v>16</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="3">
+        <v>16</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C60" s="3">
+        <v>17</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C61" s="3">
+        <v>17</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C62" s="3">
+        <v>17</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C63" s="3">
+        <v>17</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C64" s="3">
+        <v>17</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C65" s="3">
+        <v>17</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C66" s="3">
+        <v>17</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C67" s="3">
+        <v>17</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" s="3">
+        <v>17</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="3">
+        <v>20</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C70" s="3">
+        <v>20</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C71" s="3">
+        <v>20</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C72" s="3">
+        <v>20</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C73" s="3">
+        <v>20</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="3">
+        <v>20</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C75" s="3">
+        <v>20</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="3">
+        <v>20</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C77" s="3">
+        <v>20</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C78" s="3">
+        <v>20</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C79" s="3">
+        <v>20</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="3">
+        <v>20</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C81" s="3">
+        <v>20</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C82" s="3">
+        <v>20</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="3">
+        <v>20</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C84" s="3">
+        <v>20</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C85" s="3">
+        <v>20</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C86" s="3">
+        <v>20</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C87" s="3">
+        <v>20</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C88" s="3">
+        <v>20</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="3">
+        <v>21</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C90" s="3">
+        <v>21</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C91" s="3">
+        <v>21</v>
+      </c>
+      <c r="D91" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C92" s="3">
+        <v>21</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C93" s="3">
+        <v>21</v>
+      </c>
+      <c r="D93" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C94" s="3">
+        <v>21</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C95" s="3">
+        <v>21</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="3">
+        <v>21</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C97" s="3">
+        <v>21</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98" s="3">
+        <v>21</v>
+      </c>
+      <c r="D98" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C99" s="3">
+        <v>21</v>
+      </c>
+      <c r="D99" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="3">
+        <v>21</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C101" s="3">
+        <v>21</v>
+      </c>
+      <c r="D101" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C102" s="3">
+        <v>21</v>
+      </c>
+      <c r="D102" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" s="3">
+        <v>21</v>
+      </c>
+      <c r="D103" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C104" s="3">
+        <v>21</v>
+      </c>
+      <c r="D104" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C105" s="3">
+        <v>21</v>
+      </c>
+      <c r="D105" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C106" s="3">
+        <v>21</v>
+      </c>
+      <c r="D106" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C107" s="3">
+        <v>21</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C108" s="3">
+        <v>21</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C109" s="3">
+        <v>21</v>
+      </c>
+      <c r="D109" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C110" s="3">
+        <v>21</v>
+      </c>
+      <c r="D110" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="3">
+        <v>21</v>
+      </c>
+      <c r="D111" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C112" s="3">
+        <v>21</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C113" s="3">
+        <v>21</v>
+      </c>
+      <c r="D113" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C114" s="3">
+        <v>21</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C115" s="3">
+        <v>21</v>
+      </c>
+      <c r="D115" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C116" s="3">
+        <v>21</v>
+      </c>
+      <c r="D116" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C117" s="3">
+        <v>21</v>
+      </c>
+      <c r="D117" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C118" s="3">
+        <v>21</v>
+      </c>
+      <c r="D118" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C119" s="3">
+        <v>22</v>
+      </c>
+      <c r="D119" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C120" s="3">
+        <v>22</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C121" s="3">
+        <v>23</v>
+      </c>
+      <c r="D121" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C122" s="3">
+        <v>24</v>
+      </c>
+      <c r="D122" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C123" s="3">
+        <v>25</v>
+      </c>
+      <c r="D123" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C124" s="3">
+        <v>26</v>
+      </c>
+      <c r="D124" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C125" s="3">
+        <v>26</v>
+      </c>
+      <c r="D125" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C126" s="3">
+        <v>26</v>
+      </c>
+      <c r="D126" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C127" s="3">
+        <v>27</v>
+      </c>
+      <c r="D127" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="3">
+        <v>27</v>
+      </c>
+      <c r="D128" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C129" s="3">
+        <v>27</v>
+      </c>
+      <c r="D129" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C130" s="3">
+        <v>28</v>
+      </c>
+      <c r="D130" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C131" s="3">
+        <v>29</v>
+      </c>
+      <c r="D131" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C132" s="3">
+        <v>29</v>
+      </c>
+      <c r="D132" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C133" s="3">
+        <v>29</v>
+      </c>
+      <c r="D133" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" s="3">
+        <v>30</v>
+      </c>
+      <c r="D134" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135" s="3">
+        <v>30</v>
+      </c>
+      <c r="D135" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" s="3">
+        <v>30</v>
+      </c>
+      <c r="D136" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C137" s="3">
+        <v>31</v>
+      </c>
+      <c r="D137" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C138" s="3">
+        <v>31</v>
+      </c>
+      <c r="D138" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C139" s="3">
+        <v>31</v>
+      </c>
+      <c r="D139" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C140" s="3">
+        <v>32</v>
+      </c>
+      <c r="D140" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C141" s="3">
+        <v>32</v>
+      </c>
+      <c r="D141" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C142" s="3">
+        <v>32</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C143" s="3">
+        <v>33</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C144" s="3">
+        <v>33</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C145" s="3">
+        <v>33</v>
+      </c>
+      <c r="D145" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C146" s="3">
+        <v>33</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C147" s="3">
+        <v>34</v>
+      </c>
+      <c r="D147" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C148" s="3">
+        <v>34</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C149" s="3">
+        <v>35</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C150" s="3">
+        <v>35</v>
+      </c>
+      <c r="D150" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C151" s="3">
+        <v>35</v>
+      </c>
+      <c r="D151" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C152" s="3">
+        <v>36</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C153" s="3">
+        <v>36</v>
+      </c>
+      <c r="D153" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C154" s="3">
+        <v>37</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C155" s="3">
+        <v>37</v>
+      </c>
+      <c r="D155" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C156" s="3">
+        <v>37</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C157" s="3">
+        <v>37</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C158" s="3">
+        <v>38</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C159" s="3">
+        <v>38</v>
+      </c>
+      <c r="D159" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C160" s="3">
+        <v>38</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C161" s="3">
+        <v>38</v>
+      </c>
+      <c r="D161" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C162" s="3">
+        <v>39</v>
+      </c>
+      <c r="D162" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C163" s="3">
+        <v>39</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C164" s="3">
+        <v>40</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C165" s="3">
+        <v>41</v>
+      </c>
+      <c r="D165" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C166" s="3">
+        <v>41</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C167" s="3">
+        <v>41</v>
+      </c>
+      <c r="D167" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C168" s="3">
+        <v>41</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C169" s="3">
+        <v>42</v>
+      </c>
+      <c r="D169" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C170" s="3">
+        <v>42</v>
+      </c>
+      <c r="D170" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C171" s="3">
+        <v>42</v>
+      </c>
+      <c r="D171" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C172" s="3">
+        <v>43</v>
+      </c>
+      <c r="D172" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C173" s="3">
+        <v>43</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C174" s="3">
+        <v>43</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C175" s="3">
+        <v>44</v>
+      </c>
+      <c r="D175" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C176" s="3">
+        <v>44</v>
+      </c>
+      <c r="D176" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C177" s="3">
+        <v>44</v>
+      </c>
+      <c r="D177" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C178" s="3">
+        <v>44</v>
+      </c>
+      <c r="D178" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C179" s="3">
+        <v>44</v>
+      </c>
+      <c r="D179" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C180" s="3">
+        <v>45</v>
+      </c>
+      <c r="D180" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C181" s="3">
+        <v>45</v>
+      </c>
+      <c r="D181" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C182" s="3">
+        <v>45</v>
+      </c>
+      <c r="D182" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C183" s="3">
+        <v>45</v>
+      </c>
+      <c r="D183" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C184" s="3">
+        <v>46</v>
+      </c>
+      <c r="D184" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C185" s="3">
+        <v>46</v>
+      </c>
+      <c r="D185" s="3">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>

--- a/data/data2011_2015.xlsx
+++ b/data/data2011_2015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59F1933-F3CB-4536-A0F9-2E465FC2B5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0678F4D1-FE3E-47B7-A1CE-08430896A885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2011authors" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4523" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4523" uniqueCount="1028">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -3119,6 +3119,15 @@
   </si>
   <si>
     <t>Honduras</t>
+  </si>
+  <si>
+    <t>Brazil, Colombia</t>
+  </si>
+  <si>
+    <t>Argentina, Bolivia</t>
+  </si>
+  <si>
+    <t>Costa Rica,Dominica,Puerto Rico,Netherlands,Honduras,Brazil</t>
   </si>
 </sst>
 </file>
@@ -4097,7 +4106,7 @@
   <dimension ref="A1:K224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G30"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4532,7 +4541,7 @@
         <v>2015</v>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -4555,7 +4564,7 @@
         <v>2015</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -4578,7 +4587,7 @@
         <v>2015</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -4601,7 +4610,7 @@
         <v>2015</v>
       </c>
       <c r="G21" t="s">
-        <v>167</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -4624,7 +4633,7 @@
         <v>2015</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -4647,7 +4656,7 @@
         <v>2015</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -4670,7 +4679,7 @@
         <v>2015</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -4693,7 +4702,7 @@
         <v>2015</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -4716,7 +4725,7 @@
         <v>2015</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -4739,7 +4748,7 @@
         <v>2015</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -4762,7 +4771,7 @@
         <v>2015</v>
       </c>
       <c r="G28" t="s">
-        <v>167</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -4785,7 +4794,7 @@
         <v>2015</v>
       </c>
       <c r="G29" t="s">
-        <v>167</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -4808,7 +4817,7 @@
         <v>2015</v>
       </c>
       <c r="G30" t="s">
-        <v>167</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -11553,7 +11562,7 @@
   <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11562,7 +11571,7 @@
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -13101,7 +13110,7 @@
         <v>2012</v>
       </c>
       <c r="G66" t="s">
-        <v>164</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -13124,7 +13133,7 @@
         <v>2012</v>
       </c>
       <c r="G67" t="s">
-        <v>164</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -13147,7 +13156,7 @@
         <v>2012</v>
       </c>
       <c r="G68" t="s">
-        <v>164</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -14616,7 +14625,7 @@
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19356,8 +19365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F28C973-723A-458A-B18E-3550EF77ACE0}">
   <dimension ref="A1:K212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G55" sqref="G55:G56"/>
+    <sheetView topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19366,7 +19375,7 @@
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20644,7 +20653,7 @@
         <v>2014</v>
       </c>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -20667,7 +20676,7 @@
         <v>2014</v>
       </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">

--- a/data/data2011_2015.xlsx
+++ b/data/data2011_2015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27935AF1-DB01-4B32-BE10-E8154756392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E164A4-3A88-4035-8F94-559D0BF1B0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2011authors" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6559" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="1094">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -3709,7 +3709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1BCEF8-726C-42C3-B6B7-D2E60D7AE6BE}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4310,10 +4310,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DFBF45-B6E3-4682-9768-8C27BE0E9496}">
-  <dimension ref="A1:K224"/>
+  <dimension ref="A1:J224"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4325,10 +4325,10 @@
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -4359,11 +4359,8 @@
       <c r="J1" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>698</v>
       </c>
@@ -4395,7 +4392,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>700</v>
       </c>
@@ -4427,7 +4424,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>702</v>
       </c>
@@ -4459,7 +4456,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>704</v>
       </c>
@@ -4491,7 +4488,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>706</v>
       </c>
@@ -4523,7 +4520,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>708</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>710</v>
       </c>
@@ -4587,7 +4584,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>712</v>
       </c>
@@ -4619,7 +4616,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>714</v>
       </c>
@@ -4651,7 +4648,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>715</v>
       </c>
@@ -4683,7 +4680,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>717</v>
       </c>
@@ -4715,7 +4712,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>719</v>
       </c>
@@ -4747,7 +4744,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>721</v>
       </c>
@@ -4779,7 +4776,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>723</v>
       </c>
@@ -4811,7 +4808,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>725</v>
       </c>
@@ -18093,6 +18090,8 @@
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
